--- a/in-progress/Ghosh_2013_JMatChemA/master_template.xlsx
+++ b/in-progress/Ghosh_2013_JMatChemA/master_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjany/Desktop/Duke Internship/10.1039:c3ta10381a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Ghosh_2013_JMatChemA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C14DB-E5EF-264E-8D25-65BAA4C0F171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2EA38-8A16-484B-818D-34C2B2475D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="14" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="645">
   <si>
     <t>data origin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2492,12 +2492,6 @@
     <t>Celsius</t>
   </si>
   <si>
-    <t>mixture was then heated to 250°C under anitrogen atmosphere for the esterication phase.</t>
-  </si>
-  <si>
-    <t>temperature was raised to 280_x000E_C in the polycondensationreactor under vacuum to form a high molecular weight polyester</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG-silica slurry added to terephthalic acid </t>
   </si>
   <si>
@@ -2535,6 +2529,16 @@
   </si>
   <si>
     <t>polydimethylsiloxane</t>
+  </si>
+  <si>
+    <t>mixture was then heated to 250°C under anitrogen atmosphere for the esterification phase.</t>
+  </si>
+  <si>
+    <t>Description/Fixed Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature was raised to 280°C in the polycondensationreactor under vacuum to form a high molecular weight polyester</t>
   </si>
 </sst>
 </file>
@@ -2544,7 +2548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3568,6 +3572,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3610,10 +3615,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -3938,27 +3942,27 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="38" t="s">
         <v>404</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
       <c r="C3" s="38" t="s">
@@ -3977,16 +3981,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -3995,14 +3999,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:8" ht="61.2" customHeight="1">
+      <c r="A2" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>201</v>
       </c>
@@ -4028,7 +4032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -4039,7 +4043,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -4049,7 +4053,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4060,7 +4064,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>506</v>
       </c>
@@ -4071,7 +4075,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>507</v>
       </c>
@@ -4082,7 +4086,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -4093,7 +4097,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -4104,7 +4108,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4156,16 +4160,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -4174,14 +4178,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:10" ht="61.2" customHeight="1">
+      <c r="A2" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>206</v>
       </c>
@@ -4195,7 +4199,7 @@
       <c r="I4" s="124"/>
       <c r="J4" s="124"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="149" t="s">
         <v>569</v>
       </c>
@@ -4204,7 +4208,7 @@
       <c r="D5" s="141"/>
       <c r="E5" s="140"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="150" t="s">
         <v>557</v>
       </c>
@@ -4213,14 +4217,14 @@
       <c r="D6" s="134"/>
       <c r="E6" s="136"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="138"/>
       <c r="B7" s="134"/>
       <c r="C7" s="134"/>
       <c r="D7" s="134"/>
       <c r="E7" s="136"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="123" t="s">
         <v>558</v>
       </c>
@@ -4237,7 +4241,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="139" t="s">
         <v>561</v>
       </c>
@@ -4246,7 +4250,7 @@
       <c r="D9" s="133"/>
       <c r="E9" s="136"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="139" t="s">
         <v>543</v>
       </c>
@@ -4255,7 +4259,7 @@
       <c r="D10" s="131"/>
       <c r="E10" s="136"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="139" t="s">
         <v>505</v>
       </c>
@@ -4264,14 +4268,14 @@
       <c r="D11" s="131"/>
       <c r="E11" s="136"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="139"/>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
       <c r="E12" s="136"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="139"/>
       <c r="B13" s="132" t="s">
         <v>210</v>
@@ -4284,7 +4288,7 @@
       </c>
       <c r="E13" s="136"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="142" t="s">
         <v>580</v>
       </c>
@@ -4293,7 +4297,7 @@
       <c r="D14" s="134"/>
       <c r="E14" s="136"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="142" t="s">
         <v>581</v>
       </c>
@@ -4302,7 +4306,7 @@
       <c r="D15" s="134"/>
       <c r="E15" s="136"/>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="142" t="s">
         <v>582</v>
       </c>
@@ -4312,7 +4316,7 @@
       <c r="E16" s="136"/>
       <c r="F16" s="129"/>
     </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" s="143" t="s">
         <v>567</v>
       </c>
@@ -4321,8 +4325,8 @@
       <c r="D17" s="145"/>
       <c r="E17" s="146"/>
     </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" thickBot="1"/>
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="151" t="s">
         <v>568</v>
       </c>
@@ -4334,7 +4338,7 @@
       <c r="G19" s="141"/>
       <c r="H19" s="140"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="150" t="s">
         <v>557</v>
       </c>
@@ -4346,7 +4350,7 @@
       <c r="G20" s="134"/>
       <c r="H20" s="136"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="138"/>
       <c r="B21" s="134"/>
       <c r="C21" s="134"/>
@@ -4356,7 +4360,7 @@
       <c r="G21" s="134"/>
       <c r="H21" s="136"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="148" t="s">
         <v>558</v>
       </c>
@@ -4376,7 +4380,7 @@
       <c r="G22" s="134"/>
       <c r="H22" s="136"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="139" t="s">
         <v>561</v>
       </c>
@@ -4388,7 +4392,7 @@
       <c r="G23" s="134"/>
       <c r="H23" s="136"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="139" t="s">
         <v>543</v>
       </c>
@@ -4400,7 +4404,7 @@
       <c r="G24" s="134"/>
       <c r="H24" s="136"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="139" t="s">
         <v>505</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="G25" s="134"/>
       <c r="H25" s="136"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="139"/>
       <c r="B26" s="134"/>
       <c r="C26" s="134"/>
@@ -4422,7 +4426,7 @@
       <c r="G26" s="134"/>
       <c r="H26" s="136"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="139"/>
       <c r="B27" s="132" t="s">
         <v>210</v>
@@ -4446,7 +4450,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="139" t="s">
         <v>565</v>
       </c>
@@ -4458,7 +4462,7 @@
       <c r="G28" s="131"/>
       <c r="H28" s="136"/>
     </row>
-    <row r="29" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="143" t="s">
         <v>566</v>
       </c>
@@ -4510,27 +4514,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
         <v>376</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="176" t="s">
+    <row r="2" spans="1:4" ht="114" customHeight="1">
+      <c r="A2" s="177" t="s">
         <v>592</v>
       </c>
-      <c r="B2" s="176"/>
-    </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="177"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1"/>
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="153" t="s">
         <v>377</v>
       </c>
@@ -4542,7 +4546,7 @@
       </c>
       <c r="D4" s="155"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="138" t="s">
         <v>378</v>
       </c>
@@ -4550,7 +4554,7 @@
       <c r="C5" s="75"/>
       <c r="D5" s="136"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="74" t="s">
         <v>210</v>
       </c>
@@ -4558,7 +4562,7 @@
       <c r="C6" s="75"/>
       <c r="D6" s="136"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="74" t="s">
         <v>379</v>
       </c>
@@ -4566,7 +4570,7 @@
       <c r="C7" s="75"/>
       <c r="D7" s="136"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="74" t="s">
         <v>380</v>
       </c>
@@ -4574,13 +4578,13 @@
       <c r="C8" s="75"/>
       <c r="D8" s="136"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="74"/>
       <c r="B9" s="31"/>
       <c r="C9" s="75"/>
       <c r="D9" s="136"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6">
       <c r="A10" s="72" t="s">
         <v>381</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="138" t="s">
         <v>382</v>
       </c>
@@ -4604,7 +4608,7 @@
       </c>
       <c r="D11" s="136"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="138" t="s">
         <v>383</v>
       </c>
@@ -4614,7 +4618,7 @@
       </c>
       <c r="D12" s="136"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="138" t="s">
         <v>384</v>
       </c>
@@ -4624,7 +4628,7 @@
       </c>
       <c r="D13" s="136"/>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="156" t="s">
         <v>385</v>
       </c>
@@ -4632,12 +4636,12 @@
       <c r="C14" s="157"/>
       <c r="D14" s="146"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6">
       <c r="A16" s="33" t="s">
         <v>386</v>
       </c>
@@ -4651,14 +4655,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="20" t="s">
         <v>387</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
         <v>388</v>
       </c>
@@ -4707,19 +4711,19 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4742,7 +4746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4816,7 +4820,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -4835,12 +4839,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="F9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -4860,12 +4864,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="F11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5079,7 +5083,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5101,12 +5105,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -5122,7 +5126,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
@@ -5130,12 +5134,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="E34" s="20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -5176,12 +5180,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -5189,12 +5193,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="E41" s="20" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -5224,7 +5228,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -5263,47 +5267,47 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="20" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="20" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="20" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>265</v>
       </c>
@@ -5326,7 +5330,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="20" t="s">
         <v>262</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="20" t="s">
         <v>263</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="20" t="s">
         <v>264</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="20" t="s">
         <v>593</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="B67" s="20" t="s">
         <v>325</v>
       </c>
@@ -5420,7 +5424,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="B68" s="20" t="s">
         <v>326</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="B69" s="20" t="s">
         <v>327</v>
       </c>
@@ -5436,12 +5440,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="B70" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>394</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="20" t="s">
         <v>390</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="20" t="s">
         <v>391</v>
       </c>
@@ -5465,7 +5469,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="20" t="s">
         <v>392</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="20" t="s">
         <v>393</v>
       </c>
@@ -5489,18 +5493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="43" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
         <v>375</v>
       </c>
@@ -5509,14 +5513,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+    <row r="2" spans="1:4" ht="60" customHeight="1">
+      <c r="A2" s="164" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="163"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +5531,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="119" t="s">
         <v>373</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6">
       <c r="A6" s="44" t="s">
         <v>512</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="44" t="s">
         <v>419</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6">
       <c r="A8" s="44" t="s">
         <v>420</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="44" t="s">
         <v>537</v>
       </c>
@@ -5579,10 +5583,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="46"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="44" t="s">
         <v>421</v>
       </c>
@@ -5590,34 +5594,34 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="47" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="48" t="s">
         <v>423</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -5626,55 +5630,55 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5692,21 +5696,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.6">
       <c r="A31" s="21" t="s">
         <v>371</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>438</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="60" t="s">
         <v>577</v>
       </c>
@@ -5825,19 +5829,19 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
@@ -5846,14 +5850,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="164" t="s">
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="165" t="s">
         <v>518</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="22" t="s">
         <v>444</v>
       </c>
@@ -5870,12 +5874,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -5884,14 +5888,14 @@
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
@@ -5900,7 +5904,7 @@
       </c>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>439</v>
       </c>
@@ -5909,42 +5913,42 @@
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="2" t="s">
         <v>514</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6">
       <c r="A14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
@@ -5952,21 +5956,21 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.6">
       <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
@@ -5974,14 +5978,14 @@
       <c r="C18" s="4"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="53"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -5990,7 +5994,7 @@
       <c r="D20" s="56"/>
       <c r="E20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
@@ -5998,26 +6002,26 @@
       <c r="C21" s="86"/>
       <c r="D21" s="54"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="2" t="s">
         <v>523</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="18" t="s">
         <v>426</v>
       </c>
@@ -6037,19 +6041,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="124" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="124" customFormat="1" ht="15.6">
       <c r="A27" s="152" t="s">
         <v>591</v>
       </c>
       <c r="B27" s="128"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="2" t="s">
         <v>446</v>
       </c>
@@ -6058,21 +6062,21 @@
       </c>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="2" t="s">
         <v>551</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="2" t="s">
         <v>536</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="2" t="s">
         <v>515</v>
       </c>
@@ -6081,16 +6085,16 @@
       </c>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B32" s="128" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -6098,14 +6102,14 @@
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.6">
       <c r="A34" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="2" t="s">
         <v>524</v>
       </c>
@@ -6114,11 +6118,11 @@
         <v>14</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -6126,7 +6130,7 @@
       <c r="C36" s="16"/>
       <c r="D36" s="128"/>
     </row>
-    <row r="37" spans="1:5" s="124" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="124" customFormat="1" ht="15.6">
       <c r="A37" s="125" t="s">
         <v>579</v>
       </c>
@@ -6134,14 +6138,14 @@
       <c r="C37" s="128"/>
       <c r="D37" s="128"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.6">
       <c r="A38" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.6">
       <c r="A39" s="2" t="s">
         <v>434</v>
       </c>
@@ -6149,7 +6153,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.6">
       <c r="A40" s="2" t="s">
         <v>433</v>
       </c>
@@ -6157,7 +6161,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="2" t="s">
         <v>435</v>
       </c>
@@ -6165,28 +6169,28 @@
       <c r="C41" s="16"/>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.6">
       <c r="A42" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.6">
       <c r="A43" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.6">
       <c r="A45" s="18" t="s">
         <v>429</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="2" t="s">
         <v>443</v>
       </c>
@@ -6195,7 +6199,7 @@
       </c>
       <c r="C46" s="70"/>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48" s="18" t="s">
         <v>453</v>
       </c>
@@ -6212,18 +6216,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="B49" s="177" t="s">
-        <v>643</v>
+      <c r="B49" s="163" t="s">
+        <v>641</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="46" t="s">
         <v>448</v>
       </c>
@@ -6232,14 +6236,14 @@
       <c r="D50" s="43"/>
       <c r="E50" s="57"/>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="35" t="s">
         <v>530</v>
       </c>
       <c r="B51" s="58"/>
       <c r="E51" s="57"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="2" t="s">
         <v>516</v>
       </c>
@@ -6248,7 +6252,7 @@
       <c r="D52" s="43"/>
       <c r="E52" s="57"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="46" t="s">
         <v>449</v>
       </c>
@@ -6257,7 +6261,7 @@
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="46" t="s">
         <v>451</v>
       </c>
@@ -6266,7 +6270,7 @@
       <c r="D54" s="59"/>
       <c r="E54" s="43"/>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="46" t="s">
         <v>452</v>
       </c>
@@ -6275,7 +6279,7 @@
       <c r="D55" s="58"/>
       <c r="E55" s="43"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>450</v>
       </c>
@@ -6284,7 +6288,7 @@
       <c r="D56" s="58"/>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="2" t="s">
         <v>520</v>
       </c>
@@ -6292,61 +6296,61 @@
       <c r="C57" s="58"/>
       <c r="E57" s="43"/>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B58" s="58"/>
       <c r="C58" s="58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="F60" s="164" t="s">
+      <c r="F60" s="165" t="s">
         <v>531</v>
       </c>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="124"/>
       <c r="B61" s="124"/>
       <c r="C61" s="124"/>
       <c r="D61" s="124"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="124"/>
       <c r="B62" s="124"/>
       <c r="C62" s="124"/>
       <c r="D62" s="124"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="124"/>
       <c r="B63" s="124"/>
       <c r="C63" s="124"/>
       <c r="D63" s="124"/>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-    </row>
-    <row r="64" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="124"/>
       <c r="B64" s="124"/>
       <c r="C64" s="124"/>
       <c r="D64" s="124"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-    </row>
-    <row r="65" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="166"/>
+      <c r="G64" s="166"/>
+      <c r="H64" s="166"/>
+    </row>
+    <row r="65" spans="1:9" ht="21.6" thickBot="1">
       <c r="A65" s="124"/>
       <c r="B65" s="124"/>
       <c r="C65" s="124"/>
@@ -6358,7 +6362,7 @@
       <c r="H65" s="84"/>
       <c r="I65" s="85"/>
     </row>
-    <row r="66" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" thickBot="1">
       <c r="A66" s="124"/>
       <c r="B66" s="124"/>
       <c r="C66" s="124"/>
@@ -6370,7 +6374,7 @@
       <c r="H66" s="88"/>
       <c r="I66" s="87"/>
     </row>
-    <row r="67" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.2" thickTop="1">
       <c r="A67" s="124"/>
       <c r="B67" s="124"/>
       <c r="C67" s="124"/>
@@ -6388,7 +6392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="124"/>
       <c r="B68" s="124"/>
       <c r="C68" s="124"/>
@@ -6400,7 +6404,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="71"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="124"/>
       <c r="B69" s="124"/>
       <c r="C69" s="124"/>
@@ -6412,7 +6416,7 @@
       <c r="H69" s="75"/>
       <c r="I69" s="71"/>
     </row>
-    <row r="70" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15" thickBot="1">
       <c r="A70" s="124"/>
       <c r="B70" s="124"/>
       <c r="C70" s="124"/>
@@ -6424,7 +6428,7 @@
       <c r="H70" s="93"/>
       <c r="I70" s="91"/>
     </row>
-    <row r="71" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="124"/>
       <c r="B71" s="124"/>
       <c r="C71" s="124"/>
@@ -6434,7 +6438,7 @@
       <c r="H71" s="31"/>
       <c r="I71" s="71"/>
     </row>
-    <row r="72" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.2" thickTop="1">
       <c r="A72" s="124"/>
       <c r="B72" s="124"/>
       <c r="C72" s="124"/>
@@ -6452,7 +6456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="124"/>
       <c r="B73" s="124"/>
       <c r="C73" s="124"/>
@@ -6464,7 +6468,7 @@
       <c r="H73" s="75"/>
       <c r="I73" s="71"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="124"/>
       <c r="B74" s="124"/>
       <c r="C74" s="124"/>
@@ -6476,7 +6480,7 @@
       <c r="H74" s="23"/>
       <c r="I74" s="71"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="124"/>
       <c r="B75" s="124"/>
       <c r="C75" s="124"/>
@@ -6488,7 +6492,7 @@
       <c r="H75" s="23"/>
       <c r="I75" s="71"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="124"/>
       <c r="B76" s="124"/>
       <c r="C76" s="124"/>
@@ -6500,7 +6504,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="71"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="124"/>
       <c r="B77" s="124"/>
       <c r="C77" s="124"/>
@@ -6512,7 +6516,7 @@
       <c r="H77" s="57"/>
       <c r="I77" s="71"/>
     </row>
-    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="16.2" thickBot="1">
       <c r="A78" s="124"/>
       <c r="B78" s="124"/>
       <c r="C78" s="124"/>
@@ -6524,7 +6528,7 @@
       <c r="H78" s="99"/>
       <c r="I78" s="91"/>
     </row>
-    <row r="79" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="124"/>
       <c r="B79" s="124"/>
       <c r="C79" s="124"/>
@@ -6534,7 +6538,7 @@
       <c r="H79" s="95"/>
       <c r="I79" s="96"/>
     </row>
-    <row r="80" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.2" thickTop="1">
       <c r="A80" s="124"/>
       <c r="B80" s="124"/>
       <c r="C80" s="124"/>
@@ -6552,7 +6556,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" thickBot="1">
       <c r="A81" s="124"/>
       <c r="B81" s="124"/>
       <c r="C81" s="124"/>
@@ -6564,7 +6568,7 @@
       <c r="H81" s="93"/>
       <c r="I81" s="104"/>
     </row>
-    <row r="82" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A82" s="124"/>
       <c r="B82" s="124"/>
       <c r="C82" s="124"/>
@@ -6574,7 +6578,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.2" thickTop="1">
       <c r="A83" s="124"/>
       <c r="B83" s="124"/>
       <c r="C83" s="124"/>
@@ -6592,7 +6596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="124"/>
       <c r="B84" s="124"/>
       <c r="C84" s="124"/>
@@ -6604,7 +6608,7 @@
       <c r="H84" s="75"/>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="124"/>
       <c r="B85" s="124"/>
       <c r="C85" s="124"/>
@@ -6616,7 +6620,7 @@
       <c r="H85" s="75"/>
       <c r="I85" s="71"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="124"/>
       <c r="B86" s="124"/>
       <c r="C86" s="124"/>
@@ -6628,7 +6632,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="71"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="124"/>
       <c r="B87" s="124"/>
       <c r="C87" s="124"/>
@@ -6640,7 +6644,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="71"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="124"/>
       <c r="B88" s="124"/>
       <c r="C88" s="124"/>
@@ -6652,7 +6656,7 @@
       <c r="H88" s="23"/>
       <c r="I88" s="71"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="124"/>
       <c r="B89" s="124"/>
       <c r="C89" s="124"/>
@@ -6664,7 +6668,7 @@
       <c r="H89" s="23"/>
       <c r="I89" s="71"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="124"/>
       <c r="B90" s="124"/>
       <c r="C90" s="124"/>
@@ -6680,7 +6684,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15" thickBot="1">
       <c r="A91" s="124"/>
       <c r="B91" s="124"/>
       <c r="C91" s="124"/>
@@ -6692,7 +6696,7 @@
       <c r="H91" s="93"/>
       <c r="I91" s="116"/>
     </row>
-    <row r="92" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="124"/>
       <c r="B92" s="124"/>
       <c r="C92" s="124"/>
@@ -6702,7 +6706,7 @@
       <c r="H92" s="57"/>
       <c r="I92" s="71"/>
     </row>
-    <row r="93" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.2" thickTop="1">
       <c r="A93" s="124"/>
       <c r="B93" s="124"/>
       <c r="C93" s="124"/>
@@ -6714,7 +6718,7 @@
       <c r="H93" s="114"/>
       <c r="I93" s="115"/>
     </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="124"/>
       <c r="B94" s="124"/>
       <c r="C94" s="124"/>
@@ -6724,7 +6728,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="71"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="124"/>
       <c r="B95" s="124"/>
       <c r="C95" s="124"/>
@@ -6742,7 +6746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="124"/>
       <c r="B96" s="124"/>
       <c r="C96" s="124"/>
@@ -6752,7 +6756,7 @@
       <c r="H96" s="75"/>
       <c r="I96" s="71"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="124"/>
       <c r="B97" s="124"/>
       <c r="C97" s="124"/>
@@ -6764,7 +6768,7 @@
       <c r="H97" s="75"/>
       <c r="I97" s="71"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="124"/>
       <c r="B98" s="124"/>
       <c r="C98" s="124"/>
@@ -6776,7 +6780,7 @@
       <c r="H98" s="23"/>
       <c r="I98" s="71"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="F99" s="76" t="s">
         <v>491</v>
       </c>
@@ -6784,7 +6788,7 @@
       <c r="H99" s="23"/>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="F100" s="76" t="s">
         <v>283</v>
       </c>
@@ -6792,7 +6796,7 @@
       <c r="H100" s="29"/>
       <c r="I100" s="71"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="F101" s="76" t="s">
         <v>284</v>
       </c>
@@ -6800,7 +6804,7 @@
       <c r="H101" s="29"/>
       <c r="I101" s="71"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="F102" s="76" t="s">
         <v>285</v>
       </c>
@@ -6808,7 +6812,7 @@
       <c r="H102" s="29"/>
       <c r="I102" s="71"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="F103" s="76" t="s">
         <v>286</v>
       </c>
@@ -6816,7 +6820,7 @@
       <c r="H103" s="75"/>
       <c r="I103" s="71"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="F104" s="76" t="s">
         <v>287</v>
       </c>
@@ -6824,7 +6828,7 @@
       <c r="H104" s="24"/>
       <c r="I104" s="71"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="F105" s="76" t="s">
         <v>288</v>
       </c>
@@ -6832,7 +6836,7 @@
       <c r="H105" s="29"/>
       <c r="I105" s="71"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="F106" s="76" t="s">
         <v>289</v>
       </c>
@@ -6840,7 +6844,7 @@
       <c r="H106" s="29"/>
       <c r="I106" s="71"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="F107" s="76" t="s">
         <v>290</v>
       </c>
@@ -6848,7 +6852,7 @@
       <c r="H107" s="24"/>
       <c r="I107" s="71"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="F108" s="76" t="s">
         <v>291</v>
       </c>
@@ -6856,7 +6860,7 @@
       <c r="H108" s="75"/>
       <c r="I108" s="71"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="F109" s="76" t="s">
         <v>292</v>
       </c>
@@ -6864,7 +6868,7 @@
       <c r="H109" s="29"/>
       <c r="I109" s="71"/>
     </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="F110" s="72" t="s">
         <v>293</v>
       </c>
@@ -6872,7 +6876,7 @@
       <c r="H110" s="75"/>
       <c r="I110" s="71"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="F111" s="74" t="s">
         <v>294</v>
       </c>
@@ -6880,7 +6884,7 @@
       <c r="H111" s="75"/>
       <c r="I111" s="71"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="F112" s="74" t="s">
         <v>295</v>
       </c>
@@ -6888,7 +6892,7 @@
       <c r="H112" s="29"/>
       <c r="I112" s="71"/>
     </row>
-    <row r="113" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:9">
       <c r="F113" s="76" t="s">
         <v>296</v>
       </c>
@@ -6896,7 +6900,7 @@
       <c r="H113" s="23"/>
       <c r="I113" s="71"/>
     </row>
-    <row r="114" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:9">
       <c r="F114" s="76" t="s">
         <v>297</v>
       </c>
@@ -6904,7 +6908,7 @@
       <c r="H114" s="29"/>
       <c r="I114" s="71"/>
     </row>
-    <row r="115" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:9">
       <c r="F115" s="76" t="s">
         <v>298</v>
       </c>
@@ -6912,7 +6916,7 @@
       <c r="H115" s="24"/>
       <c r="I115" s="71"/>
     </row>
-    <row r="116" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:9">
       <c r="F116" s="76" t="s">
         <v>299</v>
       </c>
@@ -6920,7 +6924,7 @@
       <c r="H116" s="23"/>
       <c r="I116" s="71"/>
     </row>
-    <row r="117" spans="6:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:9" ht="15.6">
       <c r="F117" s="72" t="s">
         <v>300</v>
       </c>
@@ -6928,7 +6932,7 @@
       <c r="H117" s="75"/>
       <c r="I117" s="71"/>
     </row>
-    <row r="118" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:9">
       <c r="F118" s="74" t="s">
         <v>301</v>
       </c>
@@ -6936,7 +6940,7 @@
       <c r="H118" s="23"/>
       <c r="I118" s="71"/>
     </row>
-    <row r="119" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:9">
       <c r="F119" s="74" t="s">
         <v>302</v>
       </c>
@@ -6944,7 +6948,7 @@
       <c r="H119" s="23"/>
       <c r="I119" s="71"/>
     </row>
-    <row r="120" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:9">
       <c r="F120" s="74" t="s">
         <v>303</v>
       </c>
@@ -6952,7 +6956,7 @@
       <c r="H120" s="24"/>
       <c r="I120" s="71"/>
     </row>
-    <row r="121" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:9">
       <c r="F121" s="74" t="s">
         <v>304</v>
       </c>
@@ -6960,7 +6964,7 @@
       <c r="H121" s="24"/>
       <c r="I121" s="71"/>
     </row>
-    <row r="122" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:9">
       <c r="F122" s="74" t="s">
         <v>305</v>
       </c>
@@ -6968,7 +6972,7 @@
       <c r="H122" s="24"/>
       <c r="I122" s="71"/>
     </row>
-    <row r="123" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:9">
       <c r="F123" s="74" t="s">
         <v>306</v>
       </c>
@@ -6976,7 +6980,7 @@
       <c r="H123" s="24"/>
       <c r="I123" s="71"/>
     </row>
-    <row r="124" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:9">
       <c r="F124" s="74" t="s">
         <v>307</v>
       </c>
@@ -6984,7 +6988,7 @@
       <c r="H124" s="24"/>
       <c r="I124" s="71"/>
     </row>
-    <row r="125" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:9">
       <c r="F125" s="74" t="s">
         <v>308</v>
       </c>
@@ -6992,13 +6996,13 @@
       <c r="H125" s="23"/>
       <c r="I125" s="71"/>
     </row>
-    <row r="126" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:9">
       <c r="F126" s="74"/>
       <c r="G126" s="75"/>
       <c r="H126" s="75"/>
       <c r="I126" s="71"/>
     </row>
-    <row r="127" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:9">
       <c r="F127" s="78" t="s">
         <v>341</v>
       </c>
@@ -7012,13 +7016,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:9">
       <c r="F128" s="78"/>
       <c r="G128" s="75"/>
       <c r="H128" s="75"/>
       <c r="I128" s="71"/>
     </row>
-    <row r="129" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:9">
       <c r="F129" s="79" t="s">
         <v>282</v>
       </c>
@@ -7026,7 +7030,7 @@
       <c r="H129" s="75"/>
       <c r="I129" s="71"/>
     </row>
-    <row r="130" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:9">
       <c r="F130" s="79" t="s">
         <v>490</v>
       </c>
@@ -7034,7 +7038,7 @@
       <c r="H130" s="23"/>
       <c r="I130" s="71"/>
     </row>
-    <row r="131" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:9">
       <c r="F131" s="79" t="s">
         <v>491</v>
       </c>
@@ -7042,7 +7046,7 @@
       <c r="H131" s="23"/>
       <c r="I131" s="71"/>
     </row>
-    <row r="132" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:9">
       <c r="F132" s="79" t="s">
         <v>344</v>
       </c>
@@ -7050,7 +7054,7 @@
       <c r="H132" s="75"/>
       <c r="I132" s="71"/>
     </row>
-    <row r="133" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:9">
       <c r="F133" s="79" t="s">
         <v>283</v>
       </c>
@@ -7058,7 +7062,7 @@
       <c r="H133" s="29"/>
       <c r="I133" s="71"/>
     </row>
-    <row r="134" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:9">
       <c r="F134" s="79" t="s">
         <v>342</v>
       </c>
@@ -7066,7 +7070,7 @@
       <c r="H134" s="29"/>
       <c r="I134" s="71"/>
     </row>
-    <row r="135" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:9">
       <c r="F135" s="79" t="s">
         <v>286</v>
       </c>
@@ -7074,7 +7078,7 @@
       <c r="H135" s="75"/>
       <c r="I135" s="71"/>
     </row>
-    <row r="136" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:9">
       <c r="F136" s="79" t="s">
         <v>343</v>
       </c>
@@ -7082,7 +7086,7 @@
       <c r="H136" s="24"/>
       <c r="I136" s="71"/>
     </row>
-    <row r="137" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:9">
       <c r="F137" s="79" t="s">
         <v>288</v>
       </c>
@@ -7090,7 +7094,7 @@
       <c r="H137" s="29"/>
       <c r="I137" s="71"/>
     </row>
-    <row r="138" spans="6:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:9" ht="15.6">
       <c r="F138" s="80" t="s">
         <v>293</v>
       </c>
@@ -7098,7 +7102,7 @@
       <c r="H138" s="75"/>
       <c r="I138" s="71"/>
     </row>
-    <row r="139" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:9">
       <c r="F139" s="81" t="s">
         <v>294</v>
       </c>
@@ -7106,7 +7110,7 @@
       <c r="H139" s="75"/>
       <c r="I139" s="71"/>
     </row>
-    <row r="140" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:9">
       <c r="F140" s="81" t="s">
         <v>295</v>
       </c>
@@ -7114,7 +7118,7 @@
       <c r="H140" s="29"/>
       <c r="I140" s="71"/>
     </row>
-    <row r="141" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:9">
       <c r="F141" s="79" t="s">
         <v>296</v>
       </c>
@@ -7122,7 +7126,7 @@
       <c r="H141" s="23"/>
       <c r="I141" s="71"/>
     </row>
-    <row r="142" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:9">
       <c r="F142" s="79" t="s">
         <v>297</v>
       </c>
@@ -7130,7 +7134,7 @@
       <c r="H142" s="29"/>
       <c r="I142" s="71"/>
     </row>
-    <row r="143" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:9">
       <c r="F143" s="82" t="s">
         <v>298</v>
       </c>
@@ -7138,7 +7142,7 @@
       <c r="H143" s="75"/>
       <c r="I143" s="71"/>
     </row>
-    <row r="144" spans="6:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:9" ht="15.6">
       <c r="F144" s="80" t="s">
         <v>300</v>
       </c>
@@ -7146,7 +7150,7 @@
       <c r="H144" s="75"/>
       <c r="I144" s="71"/>
     </row>
-    <row r="145" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:9">
       <c r="F145" s="81" t="s">
         <v>301</v>
       </c>
@@ -7154,7 +7158,7 @@
       <c r="H145" s="23"/>
       <c r="I145" s="71"/>
     </row>
-    <row r="146" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:9">
       <c r="F146" s="81" t="s">
         <v>302</v>
       </c>
@@ -7162,7 +7166,7 @@
       <c r="H146" s="23"/>
       <c r="I146" s="71"/>
     </row>
-    <row r="147" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:9">
       <c r="F147" s="81" t="s">
         <v>303</v>
       </c>
@@ -7170,7 +7174,7 @@
       <c r="H147" s="24"/>
       <c r="I147" s="71"/>
     </row>
-    <row r="148" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:9">
       <c r="F148" s="81" t="s">
         <v>304</v>
       </c>
@@ -7178,7 +7182,7 @@
       <c r="H148" s="24"/>
       <c r="I148" s="71"/>
     </row>
-    <row r="149" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:9">
       <c r="F149" s="81" t="s">
         <v>305</v>
       </c>
@@ -7186,7 +7190,7 @@
       <c r="H149" s="24"/>
       <c r="I149" s="71"/>
     </row>
-    <row r="150" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:9">
       <c r="F150" s="81" t="s">
         <v>306</v>
       </c>
@@ -7194,7 +7198,7 @@
       <c r="H150" s="24"/>
       <c r="I150" s="71"/>
     </row>
-    <row r="151" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:9">
       <c r="F151" s="81" t="s">
         <v>307</v>
       </c>
@@ -7202,7 +7206,7 @@
       <c r="H151" s="24"/>
       <c r="I151" s="71"/>
     </row>
-    <row r="152" spans="6:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:9" ht="15" thickBot="1">
       <c r="F152" s="107" t="s">
         <v>308</v>
       </c>
@@ -7210,13 +7214,13 @@
       <c r="H152" s="108"/>
       <c r="I152" s="91"/>
     </row>
-    <row r="153" spans="6:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F153" s="79"/>
       <c r="G153" s="36"/>
       <c r="H153" s="75"/>
       <c r="I153" s="71"/>
     </row>
-    <row r="154" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:9" ht="16.2" thickTop="1">
       <c r="F154" s="117" t="s">
         <v>309</v>
       </c>
@@ -7230,7 +7234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:9">
       <c r="F155" s="81" t="s">
         <v>310</v>
       </c>
@@ -7238,7 +7242,7 @@
       <c r="H155" s="75"/>
       <c r="I155" s="71"/>
     </row>
-    <row r="156" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:9">
       <c r="F156" s="81" t="s">
         <v>311</v>
       </c>
@@ -7246,7 +7250,7 @@
       <c r="H156" s="23"/>
       <c r="I156" s="71"/>
     </row>
-    <row r="157" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:9">
       <c r="F157" s="74" t="s">
         <v>312</v>
       </c>
@@ -7254,7 +7258,7 @@
       <c r="H157" s="23"/>
       <c r="I157" s="71"/>
     </row>
-    <row r="158" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:9">
       <c r="F158" s="74" t="s">
         <v>313</v>
       </c>
@@ -7262,7 +7266,7 @@
       <c r="H158" s="23"/>
       <c r="I158" s="71"/>
     </row>
-    <row r="159" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:9">
       <c r="F159" s="77"/>
       <c r="G159" s="27" t="s">
         <v>485</v>
@@ -7270,7 +7274,7 @@
       <c r="H159" s="57"/>
       <c r="I159" s="71"/>
     </row>
-    <row r="160" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:9" ht="16.2" thickBot="1">
       <c r="F160" s="97" t="s">
         <v>488</v>
       </c>
@@ -7278,13 +7282,13 @@
       <c r="H160" s="99"/>
       <c r="I160" s="91"/>
     </row>
-    <row r="161" spans="6:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F161" s="77"/>
       <c r="G161" s="57"/>
       <c r="H161" s="57"/>
       <c r="I161" s="71"/>
     </row>
-    <row r="162" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:9" ht="16.2" thickTop="1">
       <c r="F162" s="112" t="s">
         <v>314</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:9">
       <c r="F163" s="74" t="s">
         <v>315</v>
       </c>
@@ -7306,7 +7310,7 @@
       <c r="H163" s="75"/>
       <c r="I163" s="71"/>
     </row>
-    <row r="164" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:9">
       <c r="F164" s="74" t="s">
         <v>316</v>
       </c>
@@ -7314,7 +7318,7 @@
       <c r="H164" s="23"/>
       <c r="I164" s="71"/>
     </row>
-    <row r="165" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:9">
       <c r="F165" s="74" t="s">
         <v>317</v>
       </c>
@@ -7322,7 +7326,7 @@
       <c r="H165" s="23"/>
       <c r="I165" s="71"/>
     </row>
-    <row r="166" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:9">
       <c r="F166" s="74" t="s">
         <v>318</v>
       </c>
@@ -7330,7 +7334,7 @@
       <c r="H166" s="23"/>
       <c r="I166" s="71"/>
     </row>
-    <row r="167" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:9">
       <c r="F167" s="77"/>
       <c r="G167" s="27" t="s">
         <v>485</v>
@@ -7338,7 +7342,7 @@
       <c r="H167" s="57"/>
       <c r="I167" s="71"/>
     </row>
-    <row r="168" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:9" ht="16.2" thickBot="1">
       <c r="F168" s="97" t="s">
         <v>486</v>
       </c>
@@ -7346,13 +7350,13 @@
       <c r="H168" s="99"/>
       <c r="I168" s="91"/>
     </row>
-    <row r="169" spans="6:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F169" s="77"/>
       <c r="G169" s="57"/>
       <c r="H169" s="75"/>
       <c r="I169" s="71"/>
     </row>
-    <row r="170" spans="6:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="F170" s="102" t="s">
         <v>525</v>
       </c>
@@ -7360,13 +7364,13 @@
       <c r="H170" s="106"/>
       <c r="I170" s="96"/>
     </row>
-    <row r="171" spans="6:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="F171" s="72"/>
       <c r="G171" s="36"/>
       <c r="H171" s="75"/>
       <c r="I171" s="71"/>
     </row>
-    <row r="172" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:9" ht="16.2" thickTop="1">
       <c r="F172" s="112" t="s">
         <v>319</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:9">
       <c r="F173" s="74" t="s">
         <v>481</v>
       </c>
@@ -7388,7 +7392,7 @@
       <c r="H173" s="75"/>
       <c r="I173" s="71"/>
     </row>
-    <row r="174" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:9">
       <c r="F174" s="77" t="s">
         <v>489</v>
       </c>
@@ -7396,7 +7400,7 @@
       <c r="H174" s="57"/>
       <c r="I174" s="71"/>
     </row>
-    <row r="175" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:9">
       <c r="F175" s="74" t="s">
         <v>482</v>
       </c>
@@ -7404,7 +7408,7 @@
       <c r="H175" s="23"/>
       <c r="I175" s="71"/>
     </row>
-    <row r="176" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:9">
       <c r="F176" s="74" t="s">
         <v>483</v>
       </c>
@@ -7412,7 +7416,7 @@
       <c r="H176" s="23"/>
       <c r="I176" s="71"/>
     </row>
-    <row r="177" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:9">
       <c r="F177" s="74" t="s">
         <v>484</v>
       </c>
@@ -7420,7 +7424,7 @@
       <c r="H177" s="23"/>
       <c r="I177" s="71"/>
     </row>
-    <row r="178" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:9">
       <c r="F178" s="77"/>
       <c r="G178" s="27" t="s">
         <v>485</v>
@@ -7428,7 +7432,7 @@
       <c r="H178" s="57"/>
       <c r="I178" s="71"/>
     </row>
-    <row r="179" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:9" ht="16.2" thickBot="1">
       <c r="F179" s="97" t="s">
         <v>487</v>
       </c>
@@ -7436,13 +7440,13 @@
       <c r="H179" s="99"/>
       <c r="I179" s="91"/>
     </row>
-    <row r="180" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F180" s="139"/>
       <c r="G180" s="134"/>
       <c r="H180" s="134"/>
       <c r="I180" s="136"/>
     </row>
-    <row r="181" spans="5:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:9" ht="16.2" thickTop="1">
       <c r="F181" s="112" t="s">
         <v>585</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:9">
       <c r="F182" s="74" t="s">
         <v>586</v>
       </c>
@@ -7464,7 +7468,7 @@
       <c r="H182" s="75"/>
       <c r="I182" s="136"/>
     </row>
-    <row r="183" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:9">
       <c r="F183" s="74" t="s">
         <v>587</v>
       </c>
@@ -7472,7 +7476,7 @@
       <c r="H183" s="130"/>
       <c r="I183" s="136"/>
     </row>
-    <row r="184" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:9">
       <c r="F184" s="74" t="s">
         <v>588</v>
       </c>
@@ -7480,7 +7484,7 @@
       <c r="H184" s="130"/>
       <c r="I184" s="136"/>
     </row>
-    <row r="185" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:9">
       <c r="F185" s="74" t="s">
         <v>589</v>
       </c>
@@ -7488,7 +7492,7 @@
       <c r="H185" s="130"/>
       <c r="I185" s="136"/>
     </row>
-    <row r="186" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:9">
       <c r="F186" s="139"/>
       <c r="G186" s="132" t="s">
         <v>485</v>
@@ -7496,7 +7500,7 @@
       <c r="H186" s="134"/>
       <c r="I186" s="136"/>
     </row>
-    <row r="187" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:9" ht="16.2" thickBot="1">
       <c r="F187" s="97" t="s">
         <v>590</v>
       </c>
@@ -7504,13 +7508,13 @@
       <c r="H187" s="99"/>
       <c r="I187" s="91"/>
     </row>
-    <row r="188" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F188" s="139"/>
       <c r="G188" s="134"/>
       <c r="H188" s="134"/>
       <c r="I188" s="136"/>
     </row>
-    <row r="189" spans="5:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:9" ht="16.2" thickTop="1">
       <c r="F189" s="112" t="s">
         <v>528</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:9" ht="15" thickBot="1">
       <c r="F190" s="143" t="s">
         <v>529</v>
       </c>
@@ -7532,146 +7536,146 @@
       <c r="H190" s="145"/>
       <c r="I190" s="146"/>
     </row>
-    <row r="191" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:9">
       <c r="F191" s="124"/>
       <c r="G191" s="124"/>
       <c r="H191" s="124"/>
       <c r="I191" s="124"/>
     </row>
-    <row r="192" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:9">
       <c r="E192" s="124"/>
       <c r="F192" s="124"/>
       <c r="G192" s="124"/>
       <c r="H192" s="124"/>
       <c r="I192" s="124"/>
     </row>
-    <row r="193" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:9">
       <c r="E193" s="124"/>
       <c r="F193" s="124"/>
       <c r="G193" s="124"/>
       <c r="H193" s="124"/>
       <c r="I193" s="124"/>
     </row>
-    <row r="194" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:9">
       <c r="E194" s="124"/>
       <c r="F194" s="124"/>
       <c r="G194" s="124"/>
       <c r="H194" s="124"/>
       <c r="I194" s="124"/>
     </row>
-    <row r="195" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:9">
       <c r="E195" s="124"/>
       <c r="F195" s="124"/>
       <c r="G195" s="124"/>
       <c r="H195" s="124"/>
       <c r="I195" s="124"/>
     </row>
-    <row r="196" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:9">
       <c r="E196" s="124"/>
       <c r="F196" s="124"/>
       <c r="G196" s="124"/>
       <c r="H196" s="124"/>
       <c r="I196" s="124"/>
     </row>
-    <row r="197" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:9">
       <c r="E197" s="124"/>
       <c r="F197" s="124"/>
       <c r="G197" s="124"/>
       <c r="H197" s="124"/>
       <c r="I197" s="124"/>
     </row>
-    <row r="198" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:9">
       <c r="E198" s="124"/>
       <c r="F198" s="124"/>
       <c r="G198" s="124"/>
       <c r="H198" s="124"/>
       <c r="I198" s="124"/>
     </row>
-    <row r="199" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:9">
       <c r="E199" s="124"/>
       <c r="F199" s="124"/>
       <c r="G199" s="124"/>
       <c r="H199" s="124"/>
       <c r="I199" s="124"/>
     </row>
-    <row r="200" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:9">
       <c r="E200" s="124"/>
       <c r="F200" s="124"/>
       <c r="G200" s="124"/>
       <c r="H200" s="124"/>
       <c r="I200" s="124"/>
     </row>
-    <row r="201" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:9">
       <c r="E201" s="124"/>
       <c r="F201" s="124"/>
       <c r="G201" s="124"/>
       <c r="H201" s="124"/>
       <c r="I201" s="124"/>
     </row>
-    <row r="202" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:9">
       <c r="E202" s="124"/>
       <c r="F202" s="124"/>
       <c r="G202" s="124"/>
       <c r="H202" s="124"/>
       <c r="I202" s="124"/>
     </row>
-    <row r="203" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:9">
       <c r="E203" s="124"/>
       <c r="F203" s="124"/>
       <c r="G203" s="124"/>
       <c r="H203" s="124"/>
       <c r="I203" s="124"/>
     </row>
-    <row r="204" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:9">
       <c r="E204" s="124"/>
       <c r="F204" s="124"/>
       <c r="G204" s="124"/>
       <c r="H204" s="124"/>
       <c r="I204" s="124"/>
     </row>
-    <row r="205" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:9">
       <c r="E205" s="124"/>
       <c r="F205" s="124"/>
       <c r="G205" s="124"/>
       <c r="H205" s="124"/>
       <c r="I205" s="124"/>
     </row>
-    <row r="206" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:9">
       <c r="E206" s="124"/>
       <c r="F206" s="124"/>
       <c r="G206" s="124"/>
       <c r="H206" s="124"/>
       <c r="I206" s="124"/>
     </row>
-    <row r="207" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:9">
       <c r="E207" s="124"/>
       <c r="F207" s="124"/>
       <c r="G207" s="124"/>
       <c r="H207" s="124"/>
       <c r="I207" s="124"/>
     </row>
-    <row r="208" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:9">
       <c r="E208" s="124"/>
       <c r="F208" s="124"/>
       <c r="G208" s="124"/>
       <c r="H208" s="124"/>
       <c r="I208" s="124"/>
     </row>
-    <row r="209" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:9">
       <c r="E209" s="124"/>
       <c r="F209" s="124"/>
       <c r="G209" s="124"/>
       <c r="H209" s="124"/>
       <c r="I209" s="124"/>
     </row>
-    <row r="210" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:9">
       <c r="E210" s="124"/>
       <c r="F210" s="124"/>
       <c r="G210" s="124"/>
       <c r="H210" s="124"/>
       <c r="I210" s="124"/>
     </row>
-    <row r="211" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:9">
       <c r="E211" s="124"/>
       <c r="F211" s="124"/>
       <c r="G211" s="124"/>
@@ -7795,61 +7799,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="10" t="s">
         <v>238</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="173" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
-    </row>
-    <row r="2" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="175"/>
+    </row>
+    <row r="2" spans="1:9" ht="112.5" customHeight="1">
+      <c r="A2" s="171" t="s">
         <v>532</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
       <c r="F2" s="62"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="136"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="21" t="s">
         <v>583</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="46"/>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="167" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="63"/>
       <c r="I3" s="136"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="F4" s="64" t="s">
         <v>480</v>
       </c>
@@ -7857,7 +7861,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="136"/>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.2" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>362</v>
       </c>
@@ -7865,14 +7869,14 @@
         <v>264</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="F5" s="168" t="s">
+      <c r="F5" s="169" t="s">
         <v>526</v>
       </c>
-      <c r="G5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="90"/>
       <c r="I5" s="91"/>
     </row>
-    <row r="6" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.2" thickTop="1">
       <c r="A6" s="33"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -7889,7 +7893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="72" t="s">
         <v>273</v>
       </c>
@@ -7909,7 +7913,7 @@
       <c r="H7" s="75"/>
       <c r="I7" s="136"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="74" t="s">
         <v>274</v>
       </c>
@@ -7925,7 +7929,7 @@
       <c r="H8" s="75"/>
       <c r="I8" s="136"/>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="138" t="s">
         <v>275</v>
       </c>
@@ -7941,7 +7945,7 @@
       <c r="H9" s="93"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="138" t="s">
         <v>276</v>
       </c>
@@ -7955,7 +7959,7 @@
       <c r="H10" s="95"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.2" thickTop="1">
       <c r="A11" s="138" t="s">
         <v>277</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="138" t="s">
         <v>278</v>
       </c>
@@ -7989,7 +7993,7 @@
       <c r="H12" s="75"/>
       <c r="I12" s="136"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="138" t="s">
         <v>279</v>
       </c>
@@ -8003,7 +8007,7 @@
       <c r="H13" s="130"/>
       <c r="I13" s="136"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="139"/>
       <c r="B14" s="132" t="s">
         <v>501</v>
@@ -8021,7 +8025,7 @@
       <c r="H14" s="130"/>
       <c r="I14" s="136"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="103" t="s">
         <v>534</v>
       </c>
@@ -8035,7 +8039,7 @@
       <c r="H15" s="130"/>
       <c r="I15" s="136"/>
     </row>
-    <row r="16" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" thickTop="1">
       <c r="A16" s="35"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -8047,7 +8051,7 @@
       <c r="H16" s="134"/>
       <c r="I16" s="136"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.2" thickBot="1">
       <c r="A17" s="72" t="s">
         <v>268</v>
       </c>
@@ -8067,12 +8071,12 @@
       <c r="H17" s="99"/>
       <c r="I17" s="91"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>269</v>
       </c>
       <c r="B18" s="131" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="136"/>
@@ -8081,12 +8085,12 @@
       <c r="H18" s="101"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.2" thickTop="1">
       <c r="A19" s="74" t="s">
         <v>270</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="136"/>
@@ -8103,7 +8107,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="92" t="s">
         <v>271</v>
       </c>
@@ -8121,7 +8125,7 @@
       <c r="H20" s="93"/>
       <c r="I20" s="104"/>
     </row>
-    <row r="21" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A21" s="35"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -8131,7 +8135,7 @@
       <c r="H21" s="101"/>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.2" thickTop="1">
       <c r="A22" s="72" t="s">
         <v>268</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="74" t="s">
         <v>269</v>
       </c>
@@ -8173,7 +8177,7 @@
       <c r="H23" s="75"/>
       <c r="I23" s="136"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="74" t="s">
         <v>270</v>
       </c>
@@ -8189,7 +8193,7 @@
       <c r="H24" s="75"/>
       <c r="I24" s="136"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="92" t="s">
         <v>271</v>
       </c>
@@ -8207,7 +8211,7 @@
       <c r="H25" s="75"/>
       <c r="I25" s="136"/>
     </row>
-    <row r="26" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" thickTop="1">
       <c r="A26" s="36"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -8219,7 +8223,7 @@
       <c r="H26" s="131"/>
       <c r="I26" s="136"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="80" t="s">
         <v>309</v>
       </c>
@@ -8239,12 +8243,12 @@
       <c r="H27" s="130"/>
       <c r="I27" s="136"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="81" t="s">
         <v>310</v>
       </c>
       <c r="B28" s="131" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="136"/>
@@ -8255,7 +8259,7 @@
       <c r="H28" s="130"/>
       <c r="I28" s="136"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="81" t="s">
         <v>311</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="74" t="s">
         <v>312</v>
       </c>
@@ -8293,7 +8297,7 @@
       <c r="H30" s="93"/>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="74" t="s">
         <v>313</v>
       </c>
@@ -8305,9 +8309,9 @@
       <c r="H31" s="106"/>
       <c r="I31" s="96"/>
     </row>
-    <row r="32" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.2" thickTop="1">
       <c r="A32" s="139"/>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="127" t="s">
         <v>485</v>
       </c>
       <c r="C32" s="134"/>
@@ -8319,7 +8323,7 @@
       <c r="H32" s="75"/>
       <c r="I32" s="136"/>
     </row>
-    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.2" thickBot="1">
       <c r="A33" s="97" t="s">
         <v>488</v>
       </c>
@@ -8333,7 +8337,7 @@
       <c r="H33" s="75"/>
       <c r="I33" s="136"/>
     </row>
-    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.2" thickTop="1">
       <c r="A34" s="34"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -8351,12 +8355,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="B35" s="132" t="s">
-        <v>374</v>
+      <c r="B35" s="127" t="s">
+        <v>643</v>
       </c>
       <c r="C35" s="132" t="s">
         <v>85</v>
@@ -8369,12 +8373,12 @@
       <c r="H35" s="75"/>
       <c r="I35" s="136"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="81" t="s">
         <v>310</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="136"/>
@@ -8385,7 +8389,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="136"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="81" t="s">
         <v>311</v>
       </c>
@@ -8403,7 +8407,7 @@
       <c r="H37" s="130"/>
       <c r="I37" s="136"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="74" t="s">
         <v>312</v>
       </c>
@@ -8417,7 +8421,7 @@
       <c r="H38" s="130"/>
       <c r="I38" s="136"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="74" t="s">
         <v>313</v>
       </c>
@@ -8431,7 +8435,7 @@
       <c r="H39" s="133"/>
       <c r="I39" s="136"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="139"/>
       <c r="B40" s="132" t="s">
         <v>485</v>
@@ -8445,7 +8449,7 @@
       <c r="H40" s="133"/>
       <c r="I40" s="136"/>
     </row>
-    <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1">
       <c r="A41" s="97" t="s">
         <v>488</v>
       </c>
@@ -8461,7 +8465,7 @@
       <c r="H41" s="133"/>
       <c r="I41" s="136"/>
     </row>
-    <row r="42" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" thickTop="1">
       <c r="A42" s="36"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -8473,7 +8477,7 @@
       <c r="H42" s="75"/>
       <c r="I42" s="136"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="72" t="s">
         <v>280</v>
       </c>
@@ -8487,7 +8491,7 @@
       <c r="H43" s="131"/>
       <c r="I43" s="136"/>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="72"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -8499,7 +8503,7 @@
       <c r="H44" s="133"/>
       <c r="I44" s="136"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="78" t="s">
         <v>281</v>
       </c>
@@ -8519,7 +8523,7 @@
       <c r="H45" s="133"/>
       <c r="I45" s="136"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="78"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -8531,12 +8535,12 @@
       <c r="H46" s="131"/>
       <c r="I46" s="136"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="138" t="s">
         <v>282</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C47" s="75"/>
       <c r="D47" s="136"/>
@@ -8547,7 +8551,7 @@
       <c r="H47" s="75"/>
       <c r="I47" s="136"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="138" t="s">
         <v>490</v>
       </c>
@@ -8561,7 +8565,7 @@
       <c r="H48" s="133"/>
       <c r="I48" s="136"/>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="138" t="s">
         <v>491</v>
       </c>
@@ -8575,7 +8579,7 @@
       <c r="H49" s="75"/>
       <c r="I49" s="136"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="138" t="s">
         <v>283</v>
       </c>
@@ -8589,7 +8593,7 @@
       <c r="H50" s="75"/>
       <c r="I50" s="136"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="138" t="s">
         <v>284</v>
       </c>
@@ -8603,7 +8607,7 @@
       <c r="H51" s="133"/>
       <c r="I51" s="136"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="138" t="s">
         <v>285</v>
       </c>
@@ -8617,7 +8621,7 @@
       <c r="H52" s="130"/>
       <c r="I52" s="136"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="138" t="s">
         <v>286</v>
       </c>
@@ -8631,7 +8635,7 @@
       <c r="H53" s="133"/>
       <c r="I53" s="136"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="138" t="s">
         <v>287</v>
       </c>
@@ -8645,7 +8649,7 @@
       <c r="H54" s="131"/>
       <c r="I54" s="136"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="138" t="s">
         <v>288</v>
       </c>
@@ -8659,7 +8663,7 @@
       <c r="H55" s="130"/>
       <c r="I55" s="136"/>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="138" t="s">
         <v>289</v>
       </c>
@@ -8673,7 +8677,7 @@
       <c r="H56" s="75"/>
       <c r="I56" s="136"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="138" t="s">
         <v>290</v>
       </c>
@@ -8687,7 +8691,7 @@
       <c r="H57" s="130"/>
       <c r="I57" s="136"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="138" t="s">
         <v>291</v>
       </c>
@@ -8701,7 +8705,7 @@
       <c r="H58" s="130"/>
       <c r="I58" s="136"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="138" t="s">
         <v>292</v>
       </c>
@@ -8715,7 +8719,7 @@
       <c r="H59" s="131"/>
       <c r="I59" s="136"/>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="72" t="s">
         <v>293</v>
       </c>
@@ -8729,7 +8733,7 @@
       <c r="H60" s="131"/>
       <c r="I60" s="136"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="74" t="s">
         <v>294</v>
       </c>
@@ -8743,7 +8747,7 @@
       <c r="H61" s="131"/>
       <c r="I61" s="136"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="74" t="s">
         <v>295</v>
       </c>
@@ -8757,7 +8761,7 @@
       <c r="H62" s="131"/>
       <c r="I62" s="136"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="138" t="s">
         <v>296</v>
       </c>
@@ -8771,7 +8775,7 @@
       <c r="H63" s="131"/>
       <c r="I63" s="136"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="138" t="s">
         <v>297</v>
       </c>
@@ -8785,7 +8789,7 @@
       <c r="H64" s="130"/>
       <c r="I64" s="136"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="138" t="s">
         <v>298</v>
       </c>
@@ -8797,7 +8801,7 @@
       <c r="H65" s="75"/>
       <c r="I65" s="136"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="138" t="s">
         <v>299</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="72" t="s">
         <v>300</v>
       </c>
@@ -8829,7 +8833,7 @@
       <c r="H67" s="75"/>
       <c r="I67" s="136"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="74" t="s">
         <v>301</v>
       </c>
@@ -8843,7 +8847,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="136"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="74" t="s">
         <v>302</v>
       </c>
@@ -8857,7 +8861,7 @@
       <c r="H69" s="130"/>
       <c r="I69" s="136"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="74" t="s">
         <v>303</v>
       </c>
@@ -8871,7 +8875,7 @@
       <c r="H70" s="130"/>
       <c r="I70" s="136"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="74" t="s">
         <v>304</v>
       </c>
@@ -8885,7 +8889,7 @@
       <c r="H71" s="75"/>
       <c r="I71" s="136"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="74" t="s">
         <v>305</v>
       </c>
@@ -8899,7 +8903,7 @@
       <c r="H72" s="133"/>
       <c r="I72" s="136"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="74" t="s">
         <v>306</v>
       </c>
@@ -8913,7 +8917,7 @@
       <c r="H73" s="133"/>
       <c r="I73" s="136"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="74" t="s">
         <v>307</v>
       </c>
@@ -8927,7 +8931,7 @@
       <c r="H74" s="75"/>
       <c r="I74" s="136"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="74" t="s">
         <v>308</v>
       </c>
@@ -8941,7 +8945,7 @@
       <c r="H75" s="131"/>
       <c r="I75" s="136"/>
     </row>
-    <row r="76" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" thickBot="1">
       <c r="A76" s="74"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -8954,7 +8958,7 @@
       <c r="H76" s="133"/>
       <c r="I76" s="136"/>
     </row>
-    <row r="77" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.2" thickTop="1">
       <c r="A77" s="112" t="s">
         <v>528</v>
       </c>
@@ -8975,12 +8979,12 @@
       <c r="H77" s="75"/>
       <c r="I77" s="136"/>
     </row>
-    <row r="78" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" s="143" t="s">
         <v>529</v>
       </c>
       <c r="B78" s="144" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C78" s="145"/>
       <c r="D78" s="146"/>
@@ -8992,7 +8996,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="136"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="35"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -9005,7 +9009,7 @@
       <c r="H79" s="133"/>
       <c r="I79" s="136"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="35"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -9018,7 +9022,7 @@
       <c r="H80" s="130"/>
       <c r="I80" s="136"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="35"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9031,7 +9035,7 @@
       <c r="H81" s="133"/>
       <c r="I81" s="136"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="35"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -9044,7 +9048,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="136"/>
     </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="35"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -9057,7 +9061,7 @@
       <c r="H83" s="75"/>
       <c r="I83" s="136"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="35"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -9070,7 +9074,7 @@
       <c r="H84" s="130"/>
       <c r="I84" s="136"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="35"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -9083,7 +9087,7 @@
       <c r="H85" s="130"/>
       <c r="I85" s="136"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="35"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -9096,7 +9100,7 @@
       <c r="H86" s="131"/>
       <c r="I86" s="136"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="35"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -9109,7 +9113,7 @@
       <c r="H87" s="131"/>
       <c r="I87" s="136"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="35"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -9122,7 +9126,7 @@
       <c r="H88" s="131"/>
       <c r="I88" s="136"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="35"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -9135,7 +9139,7 @@
       <c r="H89" s="131"/>
       <c r="I89" s="136"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="35"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -9148,7 +9152,7 @@
       <c r="H90" s="131"/>
       <c r="I90" s="136"/>
     </row>
-    <row r="91" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="16.2" thickBot="1">
       <c r="A91" s="35"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -9161,7 +9165,7 @@
       <c r="H91" s="108"/>
       <c r="I91" s="91"/>
     </row>
-    <row r="92" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="35"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -9172,7 +9176,7 @@
       <c r="H92" s="101"/>
       <c r="I92" s="96"/>
     </row>
-    <row r="93" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.2" thickTop="1">
       <c r="A93" s="35"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -9191,7 +9195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="35"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -9204,7 +9208,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="136"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="35"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -9217,7 +9221,7 @@
       <c r="H95" s="130"/>
       <c r="I95" s="136"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="35"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -9230,7 +9234,7 @@
       <c r="H96" s="130"/>
       <c r="I96" s="136"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="35"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -9243,7 +9247,7 @@
       <c r="H97" s="130"/>
       <c r="I97" s="136"/>
     </row>
-    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="35"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -9256,7 +9260,7 @@
       <c r="H98" s="134"/>
       <c r="I98" s="136"/>
     </row>
-    <row r="99" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="16.2" thickBot="1">
       <c r="A99" s="35"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -9269,7 +9273,7 @@
       <c r="H99" s="99"/>
       <c r="I99" s="91"/>
     </row>
-    <row r="100" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" s="35"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -9280,7 +9284,7 @@
       <c r="H100" s="106"/>
       <c r="I100" s="96"/>
     </row>
-    <row r="101" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.2" thickTop="1">
       <c r="A101" s="35"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -9299,7 +9303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -9312,7 +9316,7 @@
       <c r="H102" s="75"/>
       <c r="I102" s="136"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -9325,7 +9329,7 @@
       <c r="H103" s="130"/>
       <c r="I103" s="136"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -9338,7 +9342,7 @@
       <c r="H104" s="130"/>
       <c r="I104" s="136"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -9351,7 +9355,7 @@
       <c r="H105" s="130"/>
       <c r="I105" s="136"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -9364,7 +9368,7 @@
       <c r="H106" s="134"/>
       <c r="I106" s="136"/>
     </row>
-    <row r="107" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16.2" thickBot="1">
       <c r="A107" s="35"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -9376,7 +9380,7 @@
       <c r="H107" s="99"/>
       <c r="I107" s="91"/>
     </row>
-    <row r="108" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A108" s="34"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -9386,7 +9390,7 @@
       <c r="H108" s="101"/>
       <c r="I108" s="96"/>
     </row>
-    <row r="109" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A109" s="35"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -9398,7 +9402,7 @@
       <c r="H109" s="106"/>
       <c r="I109" s="96"/>
     </row>
-    <row r="110" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A110" s="34"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -9408,7 +9412,7 @@
       <c r="H110" s="75"/>
       <c r="I110" s="136"/>
     </row>
-    <row r="111" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.2" thickTop="1">
       <c r="A111" s="34"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -9426,7 +9430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="34"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -9438,7 +9442,7 @@
       <c r="H112" s="75"/>
       <c r="I112" s="136"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="65"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -9450,7 +9454,7 @@
       <c r="H113" s="134"/>
       <c r="I113" s="136"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="65"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -9462,7 +9466,7 @@
       <c r="H114" s="130"/>
       <c r="I114" s="136"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" s="65"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -9474,7 +9478,7 @@
       <c r="H115" s="130"/>
       <c r="I115" s="136"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" s="65"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -9486,7 +9490,7 @@
       <c r="H116" s="130"/>
       <c r="I116" s="136"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="65"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -9498,7 +9502,7 @@
       <c r="H117" s="134"/>
       <c r="I117" s="136"/>
     </row>
-    <row r="118" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="16.2" thickBot="1">
       <c r="A118" s="65"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -9510,7 +9514,7 @@
       <c r="H118" s="99"/>
       <c r="I118" s="91"/>
     </row>
-    <row r="119" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A119" s="34"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -9520,7 +9524,7 @@
       <c r="H119" s="134"/>
       <c r="I119" s="136"/>
     </row>
-    <row r="120" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.2" thickTop="1">
       <c r="A120" s="65"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -9538,7 +9542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="34"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -9550,7 +9554,7 @@
       <c r="H121" s="75"/>
       <c r="I121" s="136"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="65"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -9563,7 +9567,7 @@
       <c r="H122" s="130"/>
       <c r="I122" s="136"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="65"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -9576,7 +9580,7 @@
       <c r="H123" s="130"/>
       <c r="I123" s="136"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="135"/>
@@ -9588,7 +9592,7 @@
       <c r="H124" s="130"/>
       <c r="I124" s="136"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="135"/>
@@ -9600,7 +9604,7 @@
       <c r="H125" s="134"/>
       <c r="I125" s="136"/>
     </row>
-    <row r="126" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="16.2" thickBot="1">
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="135"/>
@@ -9612,7 +9616,7 @@
       <c r="H126" s="99"/>
       <c r="I126" s="91"/>
     </row>
-    <row r="127" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="135"/>
@@ -9622,7 +9626,7 @@
       <c r="H127" s="134"/>
       <c r="I127" s="136"/>
     </row>
-    <row r="128" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.2" thickTop="1">
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="135"/>
@@ -9640,7 +9644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="15" thickBot="1">
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="135"/>
@@ -9652,13 +9656,13 @@
       <c r="H129" s="145"/>
       <c r="I129" s="146"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9">
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="135"/>
       <c r="E130" s="135"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9">
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="135"/>
@@ -9668,7 +9672,7 @@
       <c r="H131" s="135"/>
       <c r="I131" s="135"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9">
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="135"/>
@@ -9678,7 +9682,7 @@
       <c r="H132" s="135"/>
       <c r="I132" s="135"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9">
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="135"/>
@@ -9688,7 +9692,7 @@
       <c r="H133" s="135"/>
       <c r="I133" s="135"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9">
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="135"/>
@@ -9698,7 +9702,7 @@
       <c r="H134" s="135"/>
       <c r="I134" s="135"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9">
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="135"/>
@@ -9708,7 +9712,7 @@
       <c r="H135" s="135"/>
       <c r="I135" s="135"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9">
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="135"/>
@@ -9740,7 +9744,7 @@
           <x14:formula1>
             <xm:f>'Dropdown menu choices'!$C$62:$C$65</xm:f>
           </x14:formula1>
-          <xm:sqref>G17 G99 G107 G118 G126 B33 B41</xm:sqref>
+          <xm:sqref>G17 G99 G107 G118 G126 B41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
@@ -9804,19 +9808,19 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>207</v>
       </c>
@@ -9828,19 +9832,19 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:8" ht="15.6">
+      <c r="A2" s="176" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="35"/>
       <c r="B3" s="124"/>
       <c r="C3" s="124"/>
@@ -9850,7 +9854,7 @@
       <c r="G3" s="124"/>
       <c r="H3" s="124"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>239</v>
       </c>
@@ -9862,7 +9866,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="30" t="s">
         <v>208</v>
       </c>
@@ -9888,7 +9892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="31" t="s">
         <v>209</v>
       </c>
@@ -9900,7 +9904,7 @@
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
         <v>217</v>
       </c>
@@ -9912,7 +9916,7 @@
       <c r="G7" s="124"/>
       <c r="H7" s="124"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
         <v>211</v>
       </c>
@@ -9924,7 +9928,7 @@
       <c r="G8" s="131"/>
       <c r="H8" s="124"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="31" t="s">
         <v>212</v>
       </c>
@@ -9936,7 +9940,7 @@
       <c r="G9" s="131"/>
       <c r="H9" s="124"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="31" t="s">
         <v>213</v>
       </c>
@@ -9948,7 +9952,7 @@
       <c r="G10" s="131"/>
       <c r="H10" s="124"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="31" t="s">
         <v>214</v>
       </c>
@@ -9960,7 +9964,7 @@
       <c r="G11" s="124"/>
       <c r="H11" s="124"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="31" t="s">
         <v>215</v>
       </c>
@@ -9972,7 +9976,7 @@
       <c r="G12" s="131"/>
       <c r="H12" s="124"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="32"/>
       <c r="B13" s="124"/>
       <c r="C13" s="124"/>
@@ -9982,7 +9986,7 @@
       <c r="G13" s="124"/>
       <c r="H13" s="124"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="50" t="s">
         <v>216</v>
       </c>
@@ -10008,7 +10012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
         <v>209</v>
       </c>
@@ -10020,7 +10024,7 @@
       <c r="G15" s="124"/>
       <c r="H15" s="124"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="35" t="s">
         <v>217</v>
       </c>
@@ -10032,7 +10036,7 @@
       <c r="G16" s="124"/>
       <c r="H16" s="124"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="31" t="s">
         <v>211</v>
       </c>
@@ -10044,7 +10048,7 @@
       <c r="G17" s="131"/>
       <c r="H17" s="124"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="31" t="s">
         <v>212</v>
       </c>
@@ -10056,7 +10060,7 @@
       <c r="G18" s="131"/>
       <c r="H18" s="124"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="31" t="s">
         <v>213</v>
       </c>
@@ -10068,7 +10072,7 @@
       <c r="G19" s="131"/>
       <c r="H19" s="124"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
         <v>214</v>
       </c>
@@ -10080,7 +10084,7 @@
       <c r="G20" s="124"/>
       <c r="H20" s="124"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="31" t="s">
         <v>215</v>
       </c>
@@ -10092,7 +10096,7 @@
       <c r="G21" s="131"/>
       <c r="H21" s="124"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="20"/>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
@@ -10102,7 +10106,7 @@
       <c r="G22" s="124"/>
       <c r="H22" s="124"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="33" t="s">
         <v>225</v>
       </c>
@@ -10128,7 +10132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="31" t="s">
         <v>209</v>
       </c>
@@ -10140,7 +10144,7 @@
       <c r="G24" s="124"/>
       <c r="H24" s="124"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="35" t="s">
         <v>217</v>
       </c>
@@ -10152,7 +10156,7 @@
       <c r="G25" s="124"/>
       <c r="H25" s="124"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="35" t="s">
         <v>232</v>
       </c>
@@ -10164,7 +10168,7 @@
       <c r="G26" s="131"/>
       <c r="H26" s="124"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="20"/>
       <c r="B27" s="124"/>
       <c r="C27" s="124"/>
@@ -10174,7 +10178,7 @@
       <c r="G27" s="124"/>
       <c r="H27" s="124"/>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="33" t="s">
         <v>237</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="31" t="s">
         <v>209</v>
       </c>
@@ -10212,7 +10216,7 @@
       <c r="G29" s="124"/>
       <c r="H29" s="124"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="35" t="s">
         <v>217</v>
       </c>
@@ -10224,7 +10228,7 @@
       <c r="G30" s="124"/>
       <c r="H30" s="124"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="35" t="s">
         <v>232</v>
       </c>
@@ -10236,7 +10240,7 @@
       <c r="G31" s="131"/>
       <c r="H31" s="124"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="35"/>
       <c r="B32" s="124"/>
       <c r="C32" s="124"/>
@@ -10246,7 +10250,7 @@
       <c r="G32" s="124"/>
       <c r="H32" s="124"/>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="21" t="s">
         <v>240</v>
       </c>
@@ -10258,7 +10262,7 @@
       <c r="G33" s="124"/>
       <c r="H33" s="124"/>
     </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="34" t="s">
         <v>223</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="31" t="s">
         <v>209</v>
       </c>
@@ -10296,7 +10300,7 @@
       <c r="G35" s="124"/>
       <c r="H35" s="124"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
         <v>217</v>
       </c>
@@ -10308,7 +10312,7 @@
       <c r="G36" s="124"/>
       <c r="H36" s="124"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
         <v>232</v>
       </c>
@@ -10320,7 +10324,7 @@
       <c r="G37" s="131"/>
       <c r="H37" s="124"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="35"/>
       <c r="B38" s="124"/>
       <c r="C38" s="124"/>
@@ -10330,7 +10334,7 @@
       <c r="G38" s="124"/>
       <c r="H38" s="124"/>
     </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="33" t="s">
         <v>219</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="31" t="s">
         <v>209</v>
       </c>
@@ -10368,7 +10372,7 @@
       <c r="G40" s="124"/>
       <c r="H40" s="124"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="35" t="s">
         <v>217</v>
       </c>
@@ -10380,7 +10384,7 @@
       <c r="G41" s="124"/>
       <c r="H41" s="124"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="35" t="s">
         <v>232</v>
       </c>
@@ -10392,7 +10396,7 @@
       <c r="G42" s="131"/>
       <c r="H42" s="124"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="20"/>
       <c r="B43" s="124"/>
       <c r="C43" s="124"/>
@@ -10402,7 +10406,7 @@
       <c r="G43" s="124"/>
       <c r="H43" s="124"/>
     </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="33" t="s">
         <v>227</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="31" t="s">
         <v>209</v>
       </c>
@@ -10440,7 +10444,7 @@
       <c r="G45" s="124"/>
       <c r="H45" s="124"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="35" t="s">
         <v>217</v>
       </c>
@@ -10452,7 +10456,7 @@
       <c r="G46" s="124"/>
       <c r="H46" s="124"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="35" t="s">
         <v>218</v>
       </c>
@@ -10464,7 +10468,7 @@
       <c r="G47" s="131"/>
       <c r="H47" s="124"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="20"/>
       <c r="B48" s="124"/>
       <c r="C48" s="124"/>
@@ -10474,7 +10478,7 @@
       <c r="G48" s="124"/>
       <c r="H48" s="124"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="33" t="s">
         <v>498</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="31" t="s">
         <v>209</v>
       </c>
@@ -10512,7 +10516,7 @@
       <c r="G50" s="124"/>
       <c r="H50" s="124"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="35" t="s">
         <v>217</v>
       </c>
@@ -10524,7 +10528,7 @@
       <c r="G51" s="124"/>
       <c r="H51" s="124"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="35" t="s">
         <v>218</v>
       </c>
@@ -10536,7 +10540,7 @@
       <c r="G52" s="131"/>
       <c r="H52" s="124"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="35"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -10546,7 +10550,7 @@
       <c r="G53" s="36"/>
       <c r="H53" s="124"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="33" t="s">
         <v>228</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="31" t="s">
         <v>209</v>
       </c>
@@ -10584,7 +10588,7 @@
       <c r="G55" s="124"/>
       <c r="H55" s="124"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="35" t="s">
         <v>217</v>
       </c>
@@ -10596,7 +10600,7 @@
       <c r="G56" s="124"/>
       <c r="H56" s="124"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="35" t="s">
         <v>218</v>
       </c>
@@ -10608,7 +10612,7 @@
       <c r="G57" s="131"/>
       <c r="H57" s="124"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="20"/>
       <c r="B58" s="124"/>
       <c r="C58" s="124"/>
@@ -10618,7 +10622,7 @@
       <c r="G58" s="124"/>
       <c r="H58" s="124"/>
     </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="21" t="s">
         <v>241</v>
       </c>
@@ -10630,7 +10634,7 @@
       <c r="G59" s="124"/>
       <c r="H59" s="124"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="34" t="s">
         <v>220</v>
       </c>
@@ -10656,12 +10660,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B61" s="131" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C61" s="124"/>
       <c r="D61" s="124"/>
@@ -10670,12 +10674,12 @@
       <c r="G61" s="124"/>
       <c r="H61" s="124"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B62" s="131" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C62" s="124"/>
       <c r="D62" s="124"/>
@@ -10684,7 +10688,7 @@
       <c r="G62" s="124"/>
       <c r="H62" s="124"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="35" t="s">
         <v>221</v>
       </c>
@@ -10693,14 +10697,14 @@
         <v>10</v>
       </c>
       <c r="D63" s="131" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E63" s="130"/>
       <c r="F63" s="131"/>
       <c r="G63" s="131"/>
       <c r="H63" s="124"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="35" t="s">
         <v>222</v>
       </c>
@@ -10712,12 +10716,12 @@
       <c r="G64" s="131"/>
       <c r="H64" s="124"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="35" t="s">
         <v>243</v>
       </c>
       <c r="B65" s="131" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C65" s="124"/>
       <c r="D65" s="124"/>
@@ -10726,7 +10730,7 @@
       <c r="G65" s="124"/>
       <c r="H65" s="124"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="35" t="s">
         <v>232</v>
       </c>
@@ -10738,7 +10742,7 @@
       <c r="G66" s="131"/>
       <c r="H66" s="124"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="35"/>
       <c r="B67" s="124"/>
       <c r="C67" s="124"/>
@@ -10748,7 +10752,7 @@
       <c r="G67" s="124"/>
       <c r="H67" s="124"/>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="33" t="s">
         <v>242</v>
       </c>
@@ -10774,7 +10778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="31" t="s">
         <v>209</v>
       </c>
@@ -10786,7 +10790,7 @@
       <c r="G69" s="124"/>
       <c r="H69" s="124"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="35" t="s">
         <v>217</v>
       </c>
@@ -10798,7 +10802,7 @@
       <c r="G70" s="124"/>
       <c r="H70" s="124"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="35" t="s">
         <v>232</v>
       </c>
@@ -10810,7 +10814,7 @@
       <c r="G71" s="131"/>
       <c r="H71" s="124"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="35"/>
       <c r="B72" s="124"/>
       <c r="C72" s="124"/>
@@ -10820,7 +10824,7 @@
       <c r="G72" s="124"/>
       <c r="H72" s="124"/>
     </row>
-    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="33" t="s">
         <v>436</v>
       </c>
@@ -10846,12 +10850,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B74" s="131" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C74" s="124"/>
       <c r="D74" s="124"/>
@@ -10860,12 +10864,12 @@
       <c r="G74" s="124"/>
       <c r="H74" s="124"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B75" s="131" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C75" s="124"/>
       <c r="D75" s="124"/>
@@ -10874,7 +10878,7 @@
       <c r="G75" s="124"/>
       <c r="H75" s="124"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="35" t="s">
         <v>232</v>
       </c>
@@ -10886,7 +10890,7 @@
       <c r="G76" s="131"/>
       <c r="H76" s="124"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="35"/>
       <c r="B77" s="124"/>
       <c r="C77" s="124"/>
@@ -10896,7 +10900,7 @@
       <c r="G77" s="124"/>
       <c r="H77" s="124"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="21" t="s">
         <v>244</v>
       </c>
@@ -10908,7 +10912,7 @@
       <c r="G78" s="124"/>
       <c r="H78" s="124"/>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="33" t="s">
         <v>224</v>
       </c>
@@ -10934,7 +10938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="31" t="s">
         <v>209</v>
       </c>
@@ -10946,7 +10950,7 @@
       <c r="G80" s="124"/>
       <c r="H80" s="124"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="35" t="s">
         <v>217</v>
       </c>
@@ -10958,7 +10962,7 @@
       <c r="G81" s="124"/>
       <c r="H81" s="124"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="35" t="s">
         <v>232</v>
       </c>
@@ -10970,7 +10974,7 @@
       <c r="G82" s="131"/>
       <c r="H82" s="124"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="35"/>
       <c r="B83" s="124"/>
       <c r="C83" s="124"/>
@@ -10980,7 +10984,7 @@
       <c r="G83" s="124"/>
       <c r="H83" s="124"/>
     </row>
-    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="21" t="s">
         <v>245</v>
       </c>
@@ -10992,7 +10996,7 @@
       <c r="G84" s="124"/>
       <c r="H84" s="124"/>
     </row>
-    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="33" t="s">
         <v>226</v>
       </c>
@@ -11018,7 +11022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="31" t="s">
         <v>209</v>
       </c>
@@ -11030,7 +11034,7 @@
       <c r="G86" s="124"/>
       <c r="H86" s="124"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="35" t="s">
         <v>217</v>
       </c>
@@ -11042,7 +11046,7 @@
       <c r="G87" s="124"/>
       <c r="H87" s="124"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="35" t="s">
         <v>232</v>
       </c>
@@ -11054,7 +11058,7 @@
       <c r="G88" s="131"/>
       <c r="H88" s="124"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="20"/>
       <c r="B89" s="124"/>
       <c r="C89" s="124"/>
@@ -11064,7 +11068,7 @@
       <c r="G89" s="124"/>
       <c r="H89" s="124"/>
     </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="33" t="s">
         <v>229</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="20" t="s">
         <v>230</v>
       </c>
@@ -11102,7 +11106,7 @@
       <c r="G91" s="124"/>
       <c r="H91" s="124"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="35" t="s">
         <v>217</v>
       </c>
@@ -11114,7 +11118,7 @@
       <c r="G92" s="124"/>
       <c r="H92" s="124"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="35" t="s">
         <v>545</v>
       </c>
@@ -11126,7 +11130,7 @@
       <c r="G93" s="124"/>
       <c r="H93" s="124"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="35" t="s">
         <v>232</v>
       </c>
@@ -11138,7 +11142,7 @@
       <c r="G94" s="131"/>
       <c r="H94" s="124"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="20"/>
       <c r="B95" s="124"/>
       <c r="C95" s="124"/>
@@ -11148,7 +11152,7 @@
       <c r="G95" s="124"/>
       <c r="H95" s="124"/>
     </row>
-    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="33" t="s">
         <v>231</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="31" t="s">
         <v>209</v>
       </c>
@@ -11186,7 +11190,7 @@
       <c r="G97" s="124"/>
       <c r="H97" s="124"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="35" t="s">
         <v>217</v>
       </c>
@@ -11198,7 +11202,7 @@
       <c r="G98" s="124"/>
       <c r="H98" s="124"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="35" t="s">
         <v>232</v>
       </c>
@@ -11254,20 +11258,20 @@
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -11276,19 +11280,19 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:8" ht="48" customHeight="1">
+      <c r="A2" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="22" t="s">
         <v>135</v>
       </c>
@@ -11314,7 +11318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>454</v>
       </c>
@@ -11325,7 +11329,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="43" t="s">
         <v>455</v>
       </c>
@@ -11336,7 +11340,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="43" t="s">
         <v>456</v>
       </c>
@@ -11347,7 +11351,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="124" customFormat="1">
       <c r="A9" s="158" t="s">
         <v>594</v>
       </c>
@@ -11358,7 +11362,7 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="122" t="s">
         <v>553</v>
       </c>
@@ -11369,7 +11373,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="124" customFormat="1">
       <c r="A11" s="158" t="s">
         <v>595</v>
       </c>
@@ -11380,7 +11384,7 @@
       <c r="F11" s="131"/>
       <c r="G11" s="131"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="43" t="s">
         <v>457</v>
       </c>
@@ -11391,7 +11395,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="43" t="s">
         <v>458</v>
       </c>
@@ -11402,7 +11406,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="43" t="s">
         <v>459</v>
       </c>
@@ -11413,7 +11417,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="43" t="s">
         <v>460</v>
       </c>
@@ -11424,7 +11428,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="43" t="s">
         <v>461</v>
       </c>
@@ -11435,13 +11439,13 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="43" t="s">
         <v>462</v>
       </c>
       <c r="C17" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="43" t="s">
         <v>463</v>
       </c>
@@ -11452,7 +11456,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="43" t="s">
         <v>464</v>
       </c>
@@ -11463,19 +11467,19 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="124" customFormat="1">
       <c r="A20" s="158" t="s">
         <v>598</v>
       </c>
       <c r="B20" s="131"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B21" s="24"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="22" t="s">
         <v>502</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>466</v>
       </c>
@@ -11512,7 +11516,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -11523,7 +11527,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -11534,7 +11538,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -11545,7 +11549,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>463</v>
       </c>
@@ -11556,7 +11560,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>464</v>
       </c>
@@ -11567,18 +11571,18 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B30" s="24"/>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="43" t="s">
         <v>469</v>
       </c>
@@ -11589,7 +11593,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="43" t="s">
         <v>470</v>
       </c>
@@ -11600,7 +11604,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="43" t="s">
         <v>471</v>
       </c>
@@ -11611,7 +11615,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="122" t="s">
         <v>555</v>
       </c>
@@ -11622,7 +11626,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="43" t="s">
         <v>463</v>
       </c>
@@ -11633,7 +11637,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="43" t="s">
         <v>464</v>
       </c>
@@ -11644,13 +11648,13 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B39" s="24"/>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="22" t="s">
         <v>133</v>
       </c>
@@ -11676,7 +11680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="43" t="s">
         <v>472</v>
       </c>
@@ -11687,7 +11691,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="43" t="s">
         <v>473</v>
       </c>
@@ -11698,7 +11702,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="43" t="s">
         <v>474</v>
       </c>
@@ -11709,7 +11713,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="43" t="s">
         <v>463</v>
       </c>
@@ -11720,7 +11724,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="43" t="s">
         <v>464</v>
       </c>
@@ -11731,21 +11735,21 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B47" s="24"/>
     </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="28" t="s">
         <v>139</v>
       </c>
@@ -11771,13 +11775,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>140</v>
       </c>
       <c r="B51" s="24"/>
     </row>
-    <row r="52" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="124" customFormat="1">
       <c r="A52" s="124" t="s">
         <v>141</v>
       </c>
@@ -11788,7 +11792,7 @@
       <c r="F52" s="131"/>
       <c r="G52" s="131"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="159" t="s">
         <v>597</v>
       </c>
@@ -11799,7 +11803,7 @@
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="28" t="s">
         <v>142</v>
       </c>
@@ -11825,19 +11829,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>144</v>
       </c>
       <c r="B56" s="24"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="24"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -11848,7 +11852,7 @@
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="124" customFormat="1">
       <c r="A59" s="159" t="s">
         <v>597</v>
       </c>
@@ -11859,19 +11863,19 @@
       <c r="F59" s="131"/>
       <c r="G59" s="131"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>145</v>
       </c>
       <c r="B60" s="24"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B61" s="24"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="28" t="s">
         <v>146</v>
       </c>
@@ -11897,19 +11901,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="24"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>140</v>
       </c>
       <c r="B65" s="24"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -11920,7 +11924,7 @@
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
     </row>
-    <row r="67" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="124" customFormat="1">
       <c r="A67" s="159" t="s">
         <v>597</v>
       </c>
@@ -11931,19 +11935,19 @@
       <c r="F67" s="131"/>
       <c r="G67" s="131"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>147</v>
       </c>
       <c r="B68" s="24"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B69" s="24"/>
     </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="22" t="s">
         <v>134</v>
       </c>
@@ -11969,13 +11973,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>148</v>
       </c>
       <c r="B72" s="23"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -11986,7 +11990,7 @@
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -11997,7 +12001,7 @@
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -12008,7 +12012,7 @@
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>556</v>
       </c>
@@ -12019,7 +12023,7 @@
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="129" t="s">
         <v>570</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="124" t="s">
         <v>573</v>
       </c>
@@ -12056,7 +12060,7 @@
       <c r="F79" s="124"/>
       <c r="G79" s="124"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="135" t="s">
         <v>571</v>
       </c>
@@ -12067,7 +12071,7 @@
       <c r="F80" s="124"/>
       <c r="G80" s="124"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="135" t="s">
         <v>572</v>
       </c>
@@ -12118,18 +12122,18 @@
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -12138,55 +12142,55 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A2" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="60" t="s">
         <v>510</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -12211,7 +12215,7 @@
       <c r="C14" s="24"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>543</v>
       </c>
@@ -12219,7 +12223,7 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>505</v>
       </c>
@@ -12227,7 +12231,7 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
@@ -12238,33 +12242,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="69" t="s">
         <v>511</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="69" t="s">
         <v>511</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>567</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="28" t="s">
         <v>172</v>
       </c>
@@ -12290,7 +12294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -12301,7 +12305,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -12311,7 +12315,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -12322,7 +12326,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="28" t="s">
         <v>135</v>
       </c>
@@ -12348,13 +12352,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>179</v>
       </c>
       <c r="B32" s="24"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -12365,7 +12369,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -12376,7 +12380,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -12387,7 +12391,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -12397,7 +12401,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -12408,7 +12412,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="28" t="s">
         <v>136</v>
       </c>
@@ -12434,7 +12438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -12445,7 +12449,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -12455,7 +12459,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -12529,18 +12533,18 @@
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -12549,14 +12553,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:6" ht="51" customHeight="1">
+      <c r="A2" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>111</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -12585,7 +12589,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -12594,7 +12598,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -12603,7 +12607,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>503</v>
       </c>
@@ -12612,7 +12616,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -12621,7 +12625,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -12630,7 +12634,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>513</v>
       </c>
@@ -12639,7 +12643,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -12648,7 +12652,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>504</v>
       </c>
@@ -12657,7 +12661,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="121" t="s">
         <v>535</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -12687,7 +12691,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="124" customFormat="1">
       <c r="A17" s="159" t="s">
         <v>599</v>
       </c>
@@ -12697,7 +12701,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="124" customFormat="1">
       <c r="A18" s="158" t="s">
         <v>603</v>
       </c>
@@ -12709,7 +12713,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="124" customFormat="1">
       <c r="A19" s="158" t="s">
         <v>604</v>
       </c>
@@ -12721,7 +12725,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -12731,7 +12735,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>607</v>
       </c>
@@ -12741,7 +12745,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>548</v>
       </c>
@@ -12751,7 +12755,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -12759,7 +12763,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" s="27" t="s">
         <v>609</v>
       </c>
@@ -12776,7 +12780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -12791,7 +12795,7 @@
       </c>
       <c r="E25" s="131"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" s="132" t="s">
         <v>210</v>
       </c>
@@ -12802,14 +12806,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>533</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="131"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="127" t="s">
         <v>116</v>
       </c>
@@ -12821,7 +12825,7 @@
       </c>
       <c r="E28" s="124"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>608</v>
       </c>
@@ -12829,7 +12833,7 @@
       <c r="C29" s="131"/>
       <c r="D29" s="124"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="124" t="s">
         <v>610</v>
       </c>
@@ -12878,17 +12882,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -12897,33 +12901,33 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:8" ht="61.2" customHeight="1">
+      <c r="A2" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="22" t="s">
         <v>576</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="12" t="s">
         <v>110</v>
       </c>
@@ -12946,13 +12950,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="22" t="s">
         <v>163</v>
       </c>
       <c r="B9" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="22" t="s">
         <v>186</v>
       </c>
@@ -12978,14 +12982,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>476</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -12996,7 +13000,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -13007,7 +13011,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -13018,7 +13022,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -13029,7 +13033,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="22" t="s">
         <v>191</v>
       </c>
@@ -13040,7 +13044,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="22" t="s">
         <v>192</v>
       </c>
@@ -13051,7 +13055,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="22" t="s">
         <v>193</v>
       </c>
@@ -13062,7 +13066,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="22" t="s">
         <v>574</v>
       </c>
@@ -13073,7 +13077,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="22" t="s">
         <v>575</v>
       </c>
@@ -13086,7 +13090,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="22" t="s">
         <v>194</v>
       </c>
@@ -13097,10 +13101,10 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="22" t="s">
         <v>195</v>
       </c>
@@ -13111,10 +13115,10 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="22" t="s">
         <v>196</v>
       </c>
@@ -13125,10 +13129,10 @@
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="22" t="s">
         <v>197</v>
       </c>
@@ -13139,10 +13143,10 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.6">
       <c r="A36" s="22" t="s">
         <v>198</v>
       </c>
@@ -13153,10 +13157,10 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="22" t="s">
         <v>199</v>
       </c>
@@ -13167,10 +13171,10 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="22" t="s">
         <v>200</v>
       </c>
